--- a/SLO.xlsx
+++ b/SLO.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WACKE\Desktop\Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WACKE\Desktop\saflink\flight-review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6232BD81-49A8-4100-9204-605600EE7C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D29E754-A3A4-4898-B68A-DA3EDC391B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIL" sheetId="1" r:id="rId1"/>
-    <sheet name="UKA" sheetId="2" r:id="rId2"/>
+    <sheet name="MBA" sheetId="3" r:id="rId2"/>
+    <sheet name="MYD" sheetId="4" r:id="rId3"/>
+    <sheet name="LAU" sheetId="5" r:id="rId4"/>
+    <sheet name="UKA" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
   <si>
     <t>WAT</t>
   </si>
@@ -466,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -621,11 +624,368 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BFBD96-B214-443E-BD14-2DE14BD790A6}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6">
+        <v>24</v>
+      </c>
+      <c r="E1" s="6">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6">
+        <v>28</v>
+      </c>
+      <c r="G1" s="6">
+        <v>30</v>
+      </c>
+      <c r="H1" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>36300</v>
+      </c>
+      <c r="C2" s="7">
+        <v>36300</v>
+      </c>
+      <c r="D2" s="7">
+        <v>36300</v>
+      </c>
+      <c r="E2" s="7">
+        <v>36300</v>
+      </c>
+      <c r="F2" s="7">
+        <v>36300</v>
+      </c>
+      <c r="G2" s="7">
+        <v>36300</v>
+      </c>
+      <c r="H2" s="7">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>36300</v>
+      </c>
+      <c r="C3" s="7">
+        <v>36300</v>
+      </c>
+      <c r="D3" s="7">
+        <v>36300</v>
+      </c>
+      <c r="E3" s="7">
+        <v>36300</v>
+      </c>
+      <c r="F3" s="7">
+        <v>36300</v>
+      </c>
+      <c r="G3" s="7">
+        <v>36300</v>
+      </c>
+      <c r="H3" s="7">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>36300</v>
+      </c>
+      <c r="C4" s="9">
+        <v>36300</v>
+      </c>
+      <c r="D4" s="9">
+        <v>36300</v>
+      </c>
+      <c r="E4" s="9">
+        <v>36300</v>
+      </c>
+      <c r="F4" s="9">
+        <v>36300</v>
+      </c>
+      <c r="G4" s="9">
+        <v>36300</v>
+      </c>
+      <c r="H4" s="9">
+        <v>36300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC485FA-9C95-4B79-B3B9-5FDB63D4F823}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6">
+        <v>24</v>
+      </c>
+      <c r="E1" s="6">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6">
+        <v>28</v>
+      </c>
+      <c r="G1" s="6">
+        <v>30</v>
+      </c>
+      <c r="H1" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>36300</v>
+      </c>
+      <c r="C2" s="7">
+        <v>36300</v>
+      </c>
+      <c r="D2" s="7">
+        <v>36300</v>
+      </c>
+      <c r="E2" s="7">
+        <v>36300</v>
+      </c>
+      <c r="F2" s="7">
+        <v>36300</v>
+      </c>
+      <c r="G2" s="7">
+        <v>36300</v>
+      </c>
+      <c r="H2" s="7">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>36300</v>
+      </c>
+      <c r="C3" s="7">
+        <v>36300</v>
+      </c>
+      <c r="D3" s="7">
+        <v>36300</v>
+      </c>
+      <c r="E3" s="7">
+        <v>36300</v>
+      </c>
+      <c r="F3" s="7">
+        <v>36300</v>
+      </c>
+      <c r="G3" s="7">
+        <v>36300</v>
+      </c>
+      <c r="H3" s="7">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>36300</v>
+      </c>
+      <c r="C4" s="9">
+        <v>36300</v>
+      </c>
+      <c r="D4" s="9">
+        <v>36300</v>
+      </c>
+      <c r="E4" s="9">
+        <v>36300</v>
+      </c>
+      <c r="F4" s="9">
+        <v>36300</v>
+      </c>
+      <c r="G4" s="9">
+        <v>36300</v>
+      </c>
+      <c r="H4" s="9">
+        <v>36300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC056203-A938-4B6F-A0A7-68A454603143}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6">
+        <v>24</v>
+      </c>
+      <c r="E1" s="6">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6">
+        <v>28</v>
+      </c>
+      <c r="G1" s="6">
+        <v>30</v>
+      </c>
+      <c r="H1" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>36300</v>
+      </c>
+      <c r="C2" s="7">
+        <v>36300</v>
+      </c>
+      <c r="D2" s="7">
+        <v>36300</v>
+      </c>
+      <c r="E2" s="7">
+        <v>36300</v>
+      </c>
+      <c r="F2" s="7">
+        <v>36300</v>
+      </c>
+      <c r="G2" s="7">
+        <v>36300</v>
+      </c>
+      <c r="H2" s="7">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>36300</v>
+      </c>
+      <c r="C3" s="7">
+        <v>36300</v>
+      </c>
+      <c r="D3" s="7">
+        <v>36300</v>
+      </c>
+      <c r="E3" s="7">
+        <v>36300</v>
+      </c>
+      <c r="F3" s="7">
+        <v>36300</v>
+      </c>
+      <c r="G3" s="7">
+        <v>36300</v>
+      </c>
+      <c r="H3" s="7">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>36300</v>
+      </c>
+      <c r="C4" s="9">
+        <v>36300</v>
+      </c>
+      <c r="D4" s="9">
+        <v>36300</v>
+      </c>
+      <c r="E4" s="9">
+        <v>36300</v>
+      </c>
+      <c r="F4" s="9">
+        <v>36300</v>
+      </c>
+      <c r="G4" s="9">
+        <v>36300</v>
+      </c>
+      <c r="H4" s="9">
+        <v>36300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A637D475-D498-4716-BC90-96CEE9AC3105}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/SLO.xlsx
+++ b/SLO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WACKE\Desktop\saflink\flight-review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D29E754-A3A4-4898-B68A-DA3EDC391B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA25B45-0D4C-440E-B1A1-B1A1155B64EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIL" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +66,6 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,7 +97,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -172,21 +165,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,12 +491,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -513,7 +531,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +566,7 @@
         <v>35900</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -583,7 +601,7 @@
         <v>35100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -625,115 +643,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BFBD96-B214-443E-BD14-2DE14BD790A6}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H4"/>
+      <selection sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="7">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5">
         <v>20</v>
       </c>
-      <c r="C1" s="6">
+      <c r="F1" s="8">
         <v>22</v>
       </c>
-      <c r="D1" s="6">
+      <c r="G1" s="8">
         <v>24</v>
       </c>
-      <c r="E1" s="6">
+      <c r="H1" s="8">
         <v>26</v>
       </c>
-      <c r="F1" s="6">
+      <c r="I1" s="9">
         <v>28</v>
       </c>
-      <c r="G1" s="6">
+      <c r="J1" s="9">
         <v>30</v>
       </c>
-      <c r="H1" s="6">
+      <c r="K1" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="C2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="D2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="E2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="F2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="G2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="H2" s="7">
-        <v>36300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="C2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="D2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="E2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="F2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="G2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="H2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="I2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="J2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="K2" s="2">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="C3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="D3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="E3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="F3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="G3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="H3" s="7">
-        <v>36300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="C3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="D3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="E3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="F3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="G3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="H3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="I3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="J3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="K3" s="2">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="C4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="D4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="E4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="F4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="G4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="B4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="C4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="D4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="E4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="F4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="G4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="H4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="I4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="J4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="K4" s="11">
         <v>36300</v>
       </c>
     </row>
@@ -744,115 +798,151 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC485FA-9C95-4B79-B3B9-5FDB63D4F823}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H4"/>
+      <selection sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="7">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5">
         <v>20</v>
       </c>
-      <c r="C1" s="6">
+      <c r="F1" s="8">
         <v>22</v>
       </c>
-      <c r="D1" s="6">
+      <c r="G1" s="8">
         <v>24</v>
       </c>
-      <c r="E1" s="6">
+      <c r="H1" s="8">
         <v>26</v>
       </c>
-      <c r="F1" s="6">
+      <c r="I1" s="9">
         <v>28</v>
       </c>
-      <c r="G1" s="6">
+      <c r="J1" s="9">
         <v>30</v>
       </c>
-      <c r="H1" s="6">
+      <c r="K1" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="C2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="D2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="E2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="F2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="G2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="H2" s="7">
-        <v>36300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="C2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="D2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="E2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="F2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="G2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="H2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="I2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="J2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="K2" s="2">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="C3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="D3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="E3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="F3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="G3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="H3" s="7">
-        <v>36300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="C3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="D3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="E3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="F3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="G3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="H3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="I3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="J3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="K3" s="2">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="C4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="D4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="E4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="F4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="G4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="B4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="C4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="D4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="E4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="F4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="G4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="H4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="I4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="J4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="K4" s="11">
         <v>36300</v>
       </c>
     </row>
@@ -863,115 +953,151 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC056203-A938-4B6F-A0A7-68A454603143}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="7">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5">
         <v>20</v>
       </c>
-      <c r="C1" s="6">
+      <c r="F1" s="8">
         <v>22</v>
       </c>
-      <c r="D1" s="6">
+      <c r="G1" s="8">
         <v>24</v>
       </c>
-      <c r="E1" s="6">
+      <c r="H1" s="8">
         <v>26</v>
       </c>
-      <c r="F1" s="6">
+      <c r="I1" s="9">
         <v>28</v>
       </c>
-      <c r="G1" s="6">
+      <c r="J1" s="9">
         <v>30</v>
       </c>
-      <c r="H1" s="6">
+      <c r="K1" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="C2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="D2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="E2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="F2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="G2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="H2" s="7">
-        <v>36300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="C2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="D2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="E2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="F2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="G2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="H2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="I2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="J2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="K2" s="2">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="C3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="D3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="E3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="F3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="G3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="H3" s="7">
-        <v>36300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="C3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="D3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="E3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="F3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="G3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="H3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="I3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="J3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="K3" s="2">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="C4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="D4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="E4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="F4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="G4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="B4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="C4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="D4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="E4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="F4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="G4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="H4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="I4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="J4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="K4" s="11">
         <v>36300</v>
       </c>
     </row>
@@ -982,118 +1108,154 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A637D475-D498-4716-BC90-96CEE9AC3105}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="7">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5">
         <v>20</v>
       </c>
-      <c r="C1" s="6">
+      <c r="F1" s="8">
         <v>22</v>
       </c>
-      <c r="D1" s="6">
+      <c r="G1" s="8">
         <v>24</v>
       </c>
-      <c r="E1" s="6">
+      <c r="H1" s="8">
         <v>26</v>
       </c>
-      <c r="F1" s="6">
+      <c r="I1" s="9">
         <v>28</v>
       </c>
-      <c r="G1" s="6">
+      <c r="J1" s="9">
         <v>30</v>
       </c>
-      <c r="H1" s="6">
+      <c r="K1" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="C2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="D2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="E2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="F2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="G2" s="7">
-        <v>36300</v>
-      </c>
-      <c r="H2" s="7">
-        <v>36300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="C2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="D2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="E2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="F2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="G2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="H2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="I2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="J2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="K2" s="2">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="C3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="D3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="E3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="F3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="G3" s="7">
-        <v>36300</v>
-      </c>
-      <c r="H3" s="7">
-        <v>36300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="C3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="D3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="E3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="F3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="G3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="H3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="I3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="J3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="K3" s="2">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="C4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="D4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="E4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="F4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="G4" s="9">
-        <v>36300</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="B4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="C4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="D4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="E4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="F4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="G4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="H4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="I4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="J4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="K4" s="11">
         <v>36300</v>
       </c>
     </row>

--- a/SLO.xlsx
+++ b/SLO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WACKE\Desktop\saflink\flight-review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\flight-review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA25B45-0D4C-440E-B1A1-B1A1155B64EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C7FDB1-072A-4F28-A2F5-D37297DF75B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIL" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="MYD" sheetId="4" r:id="rId3"/>
     <sheet name="LAU" sheetId="5" r:id="rId4"/>
     <sheet name="UKA" sheetId="2" r:id="rId5"/>
+    <sheet name="KIS" sheetId="6" r:id="rId6"/>
+    <sheet name="EBB" sheetId="7" r:id="rId7"/>
+    <sheet name="ZNZ" sheetId="8" r:id="rId8"/>
+    <sheet name="JRO" sheetId="9" r:id="rId9"/>
+    <sheet name="NBO" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="4">
   <si>
     <t>WAT</t>
   </si>
@@ -204,7 +209,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,7 +493,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,16 +607,16 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>36300</v>
-      </c>
-      <c r="C4" s="4">
-        <v>36300</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="C4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="D4" s="12">
         <v>36300</v>
       </c>
       <c r="E4" s="4">
@@ -634,6 +639,161 @@
       </c>
       <c r="K4" s="4">
         <v>34200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9442DDA3-AAAC-413F-B624-8469489E0C52}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5">
+        <v>20</v>
+      </c>
+      <c r="F1" s="8">
+        <v>22</v>
+      </c>
+      <c r="G1" s="8">
+        <v>24</v>
+      </c>
+      <c r="H1" s="8">
+        <v>26</v>
+      </c>
+      <c r="I1" s="9">
+        <v>28</v>
+      </c>
+      <c r="J1" s="9">
+        <v>30</v>
+      </c>
+      <c r="K1" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="C2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="D2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="E2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="F2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="G2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="H2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="I2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="J2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="K2" s="4">
+        <v>35900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="C3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="D3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="E3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="F3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="G3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="H3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="I3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="J3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="K3" s="2">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="C4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="D4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="E4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="F4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="G4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="H4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="I4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="J4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="K4" s="11">
+        <v>36300</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +806,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K4"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,7 +1156,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1110,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A637D475-D498-4716-BC90-96CEE9AC3105}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,4 +1422,624 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CB4D79-F89A-49E7-9F2A-6680320459B2}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5">
+        <v>20</v>
+      </c>
+      <c r="F1" s="8">
+        <v>22</v>
+      </c>
+      <c r="G1" s="8">
+        <v>24</v>
+      </c>
+      <c r="H1" s="8">
+        <v>26</v>
+      </c>
+      <c r="I1" s="9">
+        <v>28</v>
+      </c>
+      <c r="J1" s="9">
+        <v>30</v>
+      </c>
+      <c r="K1" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="C2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="D2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="E2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="F2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="G2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="H2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="I2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="J2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="K2" s="2">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="C3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="D3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="E3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="F3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="G3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="H3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="I3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="J3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="K3" s="2">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="C4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="D4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="E4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="F4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="G4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="H4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="I4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="J4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="K4" s="11">
+        <v>36300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA81A98-575C-4417-AC9C-B5BEAA1C5E74}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5">
+        <v>20</v>
+      </c>
+      <c r="F1" s="8">
+        <v>22</v>
+      </c>
+      <c r="G1" s="8">
+        <v>24</v>
+      </c>
+      <c r="H1" s="8">
+        <v>26</v>
+      </c>
+      <c r="I1" s="9">
+        <v>28</v>
+      </c>
+      <c r="J1" s="9">
+        <v>30</v>
+      </c>
+      <c r="K1" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="C2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="D2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="E2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="F2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="G2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="H2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="I2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="J2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="K2" s="2">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="C3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="D3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="E3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="F3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="G3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="H3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="I3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="J3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="K3" s="2">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="C4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="D4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="E4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="F4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="G4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="H4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="I4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="J4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="K4" s="11">
+        <v>36300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA244F56-74E5-411D-A43E-2BBDF3CB86F9}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5">
+        <v>20</v>
+      </c>
+      <c r="F1" s="8">
+        <v>22</v>
+      </c>
+      <c r="G1" s="8">
+        <v>24</v>
+      </c>
+      <c r="H1" s="8">
+        <v>26</v>
+      </c>
+      <c r="I1" s="9">
+        <v>28</v>
+      </c>
+      <c r="J1" s="9">
+        <v>30</v>
+      </c>
+      <c r="K1" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="C2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="D2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="E2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="F2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="G2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="H2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="I2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="J2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="K2" s="2">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="C3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="D3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="E3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="F3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="G3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="H3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="I3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="J3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="K3" s="2">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="C4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="D4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="E4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="F4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="G4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="H4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="I4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="J4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="K4" s="11">
+        <v>36300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E556619-8B9F-40A7-BE88-1FB6F601D4F0}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5">
+        <v>20</v>
+      </c>
+      <c r="F1" s="8">
+        <v>22</v>
+      </c>
+      <c r="G1" s="8">
+        <v>24</v>
+      </c>
+      <c r="H1" s="8">
+        <v>26</v>
+      </c>
+      <c r="I1" s="9">
+        <v>28</v>
+      </c>
+      <c r="J1" s="9">
+        <v>30</v>
+      </c>
+      <c r="K1" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="C2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="D2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="E2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="F2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="G2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="H2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="I2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="J2" s="2">
+        <v>36300</v>
+      </c>
+      <c r="K2" s="2">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="C3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="D3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="E3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="F3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="G3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="H3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="I3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="J3" s="2">
+        <v>36300</v>
+      </c>
+      <c r="K3" s="2">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="C4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="D4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="E4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="F4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="G4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="H4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="I4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="J4" s="11">
+        <v>36300</v>
+      </c>
+      <c r="K4" s="11">
+        <v>36300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>